--- a/Data/Jenkin.xlsx
+++ b/Data/Jenkin.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="1" r:id="rId1"/>
+    <sheet name="StringReverse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Input</t>
   </si>
@@ -23,6 +24,45 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>hi how are you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you are how hi </t>
+  </si>
+  <si>
+    <t>Janhvi Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Janhvi </t>
   </si>
 </sst>
 </file>
@@ -31,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,21 +85,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -107,30 +156,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +175,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -158,31 +190,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,17 +479,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,167 +528,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -976,28 +1017,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>10</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Data/Jenkin.xlsx
+++ b/Data/Jenkin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Input</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Count of Words</t>
   </si>
   <si>
     <t>hi how are you</t>
@@ -70,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +88,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -92,15 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -129,10 +140,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,7 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,53 +187,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,67 +240,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,115 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +431,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,35 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +534,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,134 +552,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1121,15 +1124,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1138,28 +1141,37 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jenkin.xlsx
+++ b/Data/Jenkin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>Input</t>
   </si>
@@ -1033,29 +1033,29 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>34</v>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1071,14 +1071,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1108,11 +1108,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jenkin.xlsx
+++ b/Data/Jenkin.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="1" r:id="rId1"/>
     <sheet name="StringReverse" sheetId="2" r:id="rId2"/>
+    <sheet name="RepeatLetters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Input</t>
   </si>
@@ -66,6 +67,21 @@
   </si>
   <si>
     <t xml:space="preserve">Here Janhvi </t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -94,6 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,15 +141,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -147,85 +195,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,9 +452,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +509,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,35 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,7 +550,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,134 +568,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1033,29 +1049,29 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>34.0</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1071,14 +1087,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.0</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1108,11 +1124,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1126,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1146,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1156,11 +1172,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1186,60 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
